--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -11952,7 +11952,7 @@
 </file>
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10695" uniqueCount="3890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13020" uniqueCount="4037">
   <si>
     <t>Key</t>
   </si>
@@ -23690,6 +23690,447 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Xong</t>
+  </si>
+  <si>
+    <t>ai_summarize</t>
+  </si>
+  <si>
+    <t>AI Summary</t>
+  </si>
+  <si>
+    <t>ai_summarize_note</t>
+  </si>
+  <si>
+    <t>Summarize with AI</t>
+  </si>
+  <si>
+    <t>ai_action_button_label</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ai_processing</t>
+  </si>
+  <si>
+    <t>Processing with AI…</t>
+  </si>
+  <si>
+    <t>ai_error</t>
+  </si>
+  <si>
+    <t>AI Error</t>
+  </si>
+  <si>
+    <t>ai_error_generic</t>
+  </si>
+  <si>
+    <t>An error occurred while processing. Please try again.</t>
+  </si>
+  <si>
+    <t>ai_error_empty_note</t>
+  </si>
+  <si>
+    <t>Note content is empty</t>
+  </si>
+  <si>
+    <t>ai_error_network</t>
+  </si>
+  <si>
+    <t>Network error. Please check your connection.</t>
+  </si>
+  <si>
+    <t>ai_error_server</t>
+  </si>
+  <si>
+    <t>Server error. Please try again later.</t>
+  </si>
+  <si>
+    <t>ai_summary_one_sentence</t>
+  </si>
+  <si>
+    <t>One Sentence Summary</t>
+  </si>
+  <si>
+    <t>ai_summary_paragraph</t>
+  </si>
+  <si>
+    <t>Detailed Summary</t>
+  </si>
+  <si>
+    <t>ai_summary_bullet_points</t>
+  </si>
+  <si>
+    <t>Key Points</t>
+  </si>
+  <si>
+    <t>ai_questions</t>
+  </si>
+  <si>
+    <t>Review Questions</t>
+  </si>
+  <si>
+    <t>ai_mcqs</t>
+  </si>
+  <si>
+    <t>Multiple Choice Questions</t>
+  </si>
+  <si>
+    <t>ai_mcq_easy</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>ai_mcq_medium</t>
+  </si>
+  <si>
+    <t>ai_mcq_hard</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>ai_copy_summary</t>
+  </si>
+  <si>
+    <t>Copy Summary</t>
+  </si>
+  <si>
+    <t>ai_copy_questions</t>
+  </si>
+  <si>
+    <t>Copy Questions</t>
+  </si>
+  <si>
+    <t>ai_copied</t>
+  </si>
+  <si>
+    <t>Copied to clipboard</t>
+  </si>
+  <si>
+    <t>ai_show_answer</t>
+  </si>
+  <si>
+    <t>Show Answer</t>
+  </si>
+  <si>
+    <t>ai_hide_answer</t>
+  </si>
+  <si>
+    <t>Hide Answer</t>
+  </si>
+  <si>
+    <t>ai_correct</t>
+  </si>
+  <si>
+    <t>Correct!</t>
+  </si>
+  <si>
+    <t>ai_incorrect</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>ai_settings</t>
+  </si>
+  <si>
+    <t>AI Settings</t>
+  </si>
+  <si>
+    <t>ai_server_url</t>
+  </si>
+  <si>
+    <t>Server URL</t>
+  </si>
+  <si>
+    <t>ai_server_url_hint</t>
+  </si>
+  <si>
+    <t>Enter AI backend server URL</t>
+  </si>
+  <si>
+    <t>ai_test_connection</t>
+  </si>
+  <si>
+    <t>Test Connection</t>
+  </si>
+  <si>
+    <t>ai_connection_success</t>
+  </si>
+  <si>
+    <t>Connected successfully!</t>
+  </si>
+  <si>
+    <t>ai_connection_failed</t>
+  </si>
+  <si>
+    <t>Connection failed</t>
+  </si>
+  <si>
+    <t>ai_progress_uploading</t>
+  </si>
+  <si>
+    <t>Uploading…</t>
+  </si>
+  <si>
+    <t>ai_progress_processing</t>
+  </si>
+  <si>
+    <t>Processing…</t>
+  </si>
+  <si>
+    <t>ai_progress_generating</t>
+  </si>
+  <si>
+    <t>Generating summary…</t>
+  </si>
+  <si>
+    <t>ai_retry</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>ai_close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>ai_choose_action</t>
+  </si>
+  <si>
+    <t>Choose an AI assistant action</t>
+  </si>
+  <si>
+    <t>ai_action_summary</t>
+  </si>
+  <si>
+    <t>Quick summary</t>
+  </si>
+  <si>
+    <t>ai_action_summary_desc</t>
+  </si>
+  <si>
+    <t>Tóm tắt 1 câu + đoạn chi tiết</t>
+  </si>
+  <si>
+    <t>ai_action_bullet</t>
+  </si>
+  <si>
+    <t>Key bullet points</t>
+  </si>
+  <si>
+    <t>ai_action_bullet_desc</t>
+  </si>
+  <si>
+    <t>Xem những ý chính quan trọng</t>
+  </si>
+  <si>
+    <t>ai_action_questions</t>
+  </si>
+  <si>
+    <t>Review questions</t>
+  </si>
+  <si>
+    <t>ai_action_questions_desc</t>
+  </si>
+  <si>
+    <t>5-10 câu hỏi tự luận kèm đáp án</t>
+  </si>
+  <si>
+    <t>ai_action_mcq</t>
+  </si>
+  <si>
+    <t>MCQ practice</t>
+  </si>
+  <si>
+    <t>ai_action_mcq_desc</t>
+  </si>
+  <si>
+    <t>Các câu hỏi trắc nghiệm nhiều độ khó</t>
+  </si>
+  <si>
+    <t>ai_action_file</t>
+  </si>
+  <si>
+    <t>AI from file</t>
+  </si>
+  <si>
+    <t>ai_action_file_desc</t>
+  </si>
+  <si>
+    <t>Ảnh, audio, PDF, DOCX, …</t>
+  </si>
+  <si>
+    <t>ai_user_id_label</t>
+  </si>
+  <si>
+    <t>AI User ID</t>
+  </si>
+  <si>
+    <t>ai_user_id_desc</t>
+  </si>
+  <si>
+    <t>ID này dùng để đồng bộ lịch sử AI giữa frontend và backend. Bạn có thể nhập username/email hoặc dùng ID tự tạo.</t>
+  </si>
+  <si>
+    <t>ai_user_id_hint</t>
+  </si>
+  <si>
+    <t>default_user hoặc username/email</t>
+  </si>
+  <si>
+    <t>ai_generate_user_id</t>
+  </si>
+  <si>
+    <t>Generate ID</t>
+  </si>
+  <si>
+    <t>show_more</t>
+  </si>
+  <si>
+    <t>Show more</t>
+  </si>
+  <si>
+    <t>show_less</t>
+  </si>
+  <si>
+    <t>Show less</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>ai_processing_multiple</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>ai_processing_single_file</t>
+  </si>
+  <si>
+    <t>ai_history_title</t>
+  </si>
+  <si>
+    <t>AI History</t>
+  </si>
+  <si>
+    <t>ai_history_search_hint</t>
+  </si>
+  <si>
+    <t>Search history…</t>
+  </si>
+  <si>
+    <t>ai_history_empty</t>
+  </si>
+  <si>
+    <t>No AI history yet</t>
+  </si>
+  <si>
+    <t>ai_loading</t>
+  </si>
+  <si>
+    <t>Loading…</t>
+  </si>
+  <si>
+    <t>ai_history_desc</t>
+  </si>
+  <si>
+    <t>View your AI interaction history</t>
+  </si>
+  <si>
+    <t>ai_from_file_title</t>
+  </si>
+  <si>
+    <t>AI from File</t>
+  </si>
+  <si>
+    <t>ai_choose_file_hint</t>
+  </si>
+  <si>
+    <t>Choose a file to process with AI</t>
+  </si>
+  <si>
+    <t>ai_processing_file</t>
+  </si>
+  <si>
+    <t>ai_processing_progress</t>
+  </si>
+  <si>
+    <t>Processing: %1$s</t>
+  </si>
+  <si>
+    <t>ai_history_untitled</t>
+  </si>
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>ai_history_no_summary</t>
+  </si>
+  <si>
+    <t>No summary available</t>
+  </si>
+  <si>
+    <t>ai_history_type_text</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>ai_history_type_image</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ai_history_type_audio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>ai_history_type_pdf</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>ai_history_type_docx</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>ai_raw_text</t>
+  </si>
+  <si>
+    <t>Processed Text</t>
+  </si>
+  <si>
+    <t>ai_raw_text_desc</t>
+  </si>
+  <si>
+    <t>Text đã được AI xử lý (OCR, transcription, spell check)</t>
+  </si>
+  <si>
+    <t>ai_copy_raw_text</t>
+  </si>
+  <si>
+    <t>Copy Text</t>
   </si>
 </sst>
 </file>
@@ -27806,14 +28247,14 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$420</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE345"/>
+  <dimension ref="A1:AE420"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -60514,7 +60955,7 @@
         <v>32</v>
       </c>
       <c r="C345" t="s" s="1">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>61</v>
@@ -60594,15 +61035,7140 @@
       <c r="AC345" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD345" t="s" s="2">
-        <v>61</v>
+      <c r="AD345" t="s" s="1">
+        <v>3891</v>
       </c>
       <c r="AE345" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>3892</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>3893</v>
+      </c>
+      <c r="D346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>3894</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>3895</v>
+      </c>
+      <c r="D347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>3896</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>3897</v>
+      </c>
+      <c r="D348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD348" t="s" s="1">
+        <v>3897</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>3898</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>3899</v>
+      </c>
+      <c r="D349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>3900</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>3901</v>
+      </c>
+      <c r="D350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>3903</v>
+      </c>
+      <c r="D351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>3904</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>3905</v>
+      </c>
+      <c r="D352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>3906</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>3907</v>
+      </c>
+      <c r="D353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>3908</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>3909</v>
+      </c>
+      <c r="D354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>3910</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>3911</v>
+      </c>
+      <c r="D355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>3912</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>3913</v>
+      </c>
+      <c r="D356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>3914</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>3915</v>
+      </c>
+      <c r="D357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>3916</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>3917</v>
+      </c>
+      <c r="D358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>3918</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>3919</v>
+      </c>
+      <c r="D359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>3920</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>3921</v>
+      </c>
+      <c r="D360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>3922</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>2514</v>
+      </c>
+      <c r="D361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>3923</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>3924</v>
+      </c>
+      <c r="D362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>3925</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>3926</v>
+      </c>
+      <c r="D363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>3927</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C364" t="s" s="1">
+        <v>3928</v>
+      </c>
+      <c r="D364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>3929</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C365" t="s" s="1">
+        <v>3930</v>
+      </c>
+      <c r="D365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>3931</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C366" t="s" s="1">
+        <v>3932</v>
+      </c>
+      <c r="D366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>3933</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C367" t="s" s="1">
+        <v>3934</v>
+      </c>
+      <c r="D367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>3935</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C368" t="s" s="1">
+        <v>3936</v>
+      </c>
+      <c r="D368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>3937</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C369" t="s" s="1">
+        <v>3938</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>3939</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C370" t="s" s="1">
+        <v>3940</v>
+      </c>
+      <c r="D370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>3941</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C371" t="s" s="1">
+        <v>3942</v>
+      </c>
+      <c r="D371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>3943</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C372" t="s" s="1">
+        <v>3944</v>
+      </c>
+      <c r="D372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>3945</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C373" t="s" s="1">
+        <v>3946</v>
+      </c>
+      <c r="D373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>3947</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C374" t="s" s="1">
+        <v>3948</v>
+      </c>
+      <c r="D374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>3949</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C375" t="s" s="1">
+        <v>3950</v>
+      </c>
+      <c r="D375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>3951</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C376" t="s" s="1">
+        <v>3952</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>3953</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C377" t="s" s="1">
+        <v>3954</v>
+      </c>
+      <c r="D377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>3955</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C378" t="s" s="1">
+        <v>3956</v>
+      </c>
+      <c r="D378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>3957</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C379" t="s" s="1">
+        <v>3958</v>
+      </c>
+      <c r="D379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>3959</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C380" t="s" s="1">
+        <v>3960</v>
+      </c>
+      <c r="D380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>3961</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C381" t="s" s="1">
+        <v>3962</v>
+      </c>
+      <c r="D381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>3963</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C382" t="s" s="1">
+        <v>3964</v>
+      </c>
+      <c r="D382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>3965</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C383" t="s" s="1">
+        <v>3966</v>
+      </c>
+      <c r="D383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>3967</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C384" t="s" s="1">
+        <v>3968</v>
+      </c>
+      <c r="D384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>3969</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C385" t="s" s="1">
+        <v>3970</v>
+      </c>
+      <c r="D385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>3971</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C386" t="s" s="1">
+        <v>3972</v>
+      </c>
+      <c r="D386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>3973</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C387" t="s" s="1">
+        <v>3974</v>
+      </c>
+      <c r="D387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>3975</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C388" t="s" s="1">
+        <v>3976</v>
+      </c>
+      <c r="D388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>3977</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C389" t="s" s="1">
+        <v>3978</v>
+      </c>
+      <c r="D389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>3979</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C390" t="s" s="1">
+        <v>3980</v>
+      </c>
+      <c r="D390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>3981</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C391" t="s" s="1">
+        <v>3982</v>
+      </c>
+      <c r="D391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>3983</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C392" t="s" s="1">
+        <v>3984</v>
+      </c>
+      <c r="D392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>3985</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C393" t="s" s="1">
+        <v>3986</v>
+      </c>
+      <c r="D393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>3987</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C394" t="s" s="1">
+        <v>3988</v>
+      </c>
+      <c r="D394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>3989</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C395" t="s" s="1">
+        <v>3990</v>
+      </c>
+      <c r="D395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>3991</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C396" t="s" s="1">
+        <v>3992</v>
+      </c>
+      <c r="D396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>3993</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C397" t="s" s="1">
+        <v>3994</v>
+      </c>
+      <c r="D397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>3995</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C398" t="s" s="1">
+        <v>3996</v>
+      </c>
+      <c r="D398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>3997</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C399" t="s" s="1">
+        <v>3954</v>
+      </c>
+      <c r="D399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>3998</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C400" t="s" s="1">
+        <v>3998</v>
+      </c>
+      <c r="D400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>3999</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C401" t="s" s="1">
+        <v>3954</v>
+      </c>
+      <c r="D401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C402" t="s" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE402" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C403" t="s" s="1">
+        <v>4003</v>
+      </c>
+      <c r="D403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD403" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE403" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C404" t="s" s="1">
+        <v>4005</v>
+      </c>
+      <c r="D404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE404" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C405" t="s" s="1">
+        <v>4007</v>
+      </c>
+      <c r="D405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE405" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C406" t="s" s="1">
+        <v>4009</v>
+      </c>
+      <c r="D406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE406" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>4010</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C407" t="s" s="1">
+        <v>4011</v>
+      </c>
+      <c r="D407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C408" t="s" s="1">
+        <v>4013</v>
+      </c>
+      <c r="D408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>4014</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C409" t="s" s="1">
+        <v>3954</v>
+      </c>
+      <c r="D409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>4015</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C410" t="s" s="1">
+        <v>4016</v>
+      </c>
+      <c r="D410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>4017</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C411" t="s" s="1">
+        <v>4018</v>
+      </c>
+      <c r="D411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>4019</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C412" t="s" s="1">
+        <v>4020</v>
+      </c>
+      <c r="D412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C413" t="s" s="1">
+        <v>4022</v>
+      </c>
+      <c r="D413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C414" t="s" s="1">
+        <v>4024</v>
+      </c>
+      <c r="D414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="1">
+        <v>4025</v>
+      </c>
+      <c r="B415" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C415" t="s" s="1">
+        <v>4026</v>
+      </c>
+      <c r="D415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD415" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE415" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="1">
+        <v>4027</v>
+      </c>
+      <c r="B416" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C416" t="s" s="1">
+        <v>4028</v>
+      </c>
+      <c r="D416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD416" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE416" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="1">
+        <v>4029</v>
+      </c>
+      <c r="B417" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C417" t="s" s="1">
+        <v>4030</v>
+      </c>
+      <c r="D417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD417" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE417" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="1">
+        <v>4031</v>
+      </c>
+      <c r="B418" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C418" t="s" s="1">
+        <v>4032</v>
+      </c>
+      <c r="D418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD418" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE418" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="1">
+        <v>4033</v>
+      </c>
+      <c r="B419" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C419" t="s" s="1">
+        <v>4034</v>
+      </c>
+      <c r="D419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD419" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE419" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="1">
+        <v>4035</v>
+      </c>
+      <c r="B420" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C420" t="s" s="1">
+        <v>4036</v>
+      </c>
+      <c r="D420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD420" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE420" t="s" s="2">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF345"/>
+  <autoFilter ref="A1:AF420"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
